--- a/data/documentation/spreadsheets/Done/algorithm-visualizer@algorithm-visualizer.xlsx
+++ b/data/documentation/spreadsheets/Done/algorithm-visualizer@algorithm-visualizer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1B1CD6-822B-48D0-B544-149CEC60803A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A130241F-26C2-4CEF-A793-42B9A8A39E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -581,9 +581,7 @@
       <c r="B12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
